--- a/Collections/EURO/Latvia/#EURO#Latvia#Commemorative#[2014-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Latvia/#EURO#Latvia#Commemorative#[2014-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Latvia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0999F65C-221E-462A-AF3D-F8FCC9D362EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18130FA7-1A93-4EAD-BF2B-3C0FB2C51709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="3860" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -1076,7 +1076,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1163,7 +1163,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="17" t="s">
         <v>6</v>
@@ -1614,7 +1614,7 @@
         <v>6</v>
       </c>
       <c r="I16" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="17" t="s">
         <v>6</v>
@@ -1644,7 +1644,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="17" t="s">
         <v>6</v>
@@ -1674,7 +1674,7 @@
         <v>6</v>
       </c>
       <c r="I18" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="17" t="s">
         <v>6</v>

--- a/Collections/EURO/Latvia/#EURO#Latvia#Commemorative#[2014-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Latvia/#EURO#Latvia#Commemorative#[2014-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Latvia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18130FA7-1A93-4EAD-BF2B-3C0FB2C51709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C8EDEE-4A73-4F42-B21F-D9759607517D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22530" yWindow="2020" windowWidth="26900" windowHeight="16750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -626,15 +626,6 @@
   </cellStyles>
   <dxfs count="21">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -778,6 +769,15 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -799,9 +799,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="19" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1076,7 +1076,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1181,14 +1181,14 @@
         <v>2015</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="20" t="s">
         <v>44</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>6</v>
@@ -1206,7 +1206,7 @@
         <v>6</v>
       </c>
       <c r="K4" s="21" t="str">
-        <f t="shared" ref="K4:K13" si="0">IF(OR(AND(H4&gt;1,H4&lt;&gt;"-"),AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-")),"Can exchange","")</f>
+        <f>IF(OR(AND(H4&gt;1,H4&lt;&gt;"-"),AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1215,14 +1215,14 @@
         <v>2015</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="20" t="s">
         <v>44</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>6</v>
@@ -1240,7 +1240,7 @@
         <v>6</v>
       </c>
       <c r="K5" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(H5&gt;1,H5&lt;&gt;"-"),AND(I5&gt;1,I5&lt;&gt;"-"),AND(J5&gt;1,J5&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1249,14 +1249,14 @@
         <v>2015</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="20" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>6</v>
@@ -1274,7 +1274,7 @@
         <v>6</v>
       </c>
       <c r="K6" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(H6&gt;1,H6&lt;&gt;"-"),AND(I6&gt;1,I6&lt;&gt;"-"),AND(J6&gt;1,J6&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
         <v>6</v>
       </c>
       <c r="K7" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K7:K13" si="0">IF(OR(AND(H7&gt;1,H7&lt;&gt;"-"),AND(I7&gt;1,I7&lt;&gt;"-"),AND(J7&gt;1,J7&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1688,12 +1688,12 @@
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="E1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="I12 H3:J3 H4:I11 J4:J12 J14">
-    <cfRule type="containsText" dxfId="20" priority="43" operator="containsText" text="*-">
+  <conditionalFormatting sqref="I12 J14 H7:I11 J7:J12 H3:J6">
+    <cfRule type="containsText" dxfId="17" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:J3 I12 H4:I11 J4:J12 J14">
+  <conditionalFormatting sqref="I12 J14 H7:I11 J7:J12 H3:J6">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1706,7 +1706,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="19" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1723,7 +1723,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="18" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1740,7 +1740,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:I14">
-    <cfRule type="containsText" dxfId="17" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1757,7 +1757,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="16" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1774,7 +1774,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="15" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1791,7 +1791,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1808,7 +1808,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1825,7 +1825,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1842,7 +1842,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1859,7 +1859,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1876,7 +1876,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17">
-    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1893,7 +1893,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1910,7 +1910,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1927,7 +1927,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1944,7 +1944,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1961,7 +1961,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1978,7 +1978,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2005,7 +2005,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Collections/EURO/Latvia/#EURO#Latvia#Commemorative#[2014-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Latvia/#EURO#Latvia#Commemorative#[2014-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Latvia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C8EDEE-4A73-4F42-B21F-D9759607517D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E833207-2406-411A-80A0-4BE1EDF18655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22530" yWindow="2020" windowWidth="26900" windowHeight="16750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{353C4EC3-9D0F-4086-BBE3-546332E42A4D}">
+    <comment ref="H2" authorId="1" shapeId="0" xr:uid="{353C4EC3-9D0F-4086-BBE3-546332E42A4D}">
       <text>
         <r>
           <rPr>
@@ -93,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -113,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="J2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -129,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="1" shapeId="0" xr:uid="{D0586513-4B23-4DD6-87E2-31F881C55861}">
+    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{D0586513-4B23-4DD6-87E2-31F881C55861}">
       <text>
         <r>
           <rPr>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="62">
   <si>
     <t>Year</t>
   </si>
@@ -164,12 +164,6 @@
     <t>2€</t>
   </si>
   <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -321,6 +315,27 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Subtype_1#Series</t>
+  </si>
+  <si>
+    <t>Subtype_2#Mint_Symbol</t>
+  </si>
+  <si>
+    <t>Subtype_3#Map_of_Europe</t>
+  </si>
+  <si>
+    <t>Obv: Without mint symbol</t>
+  </si>
+  <si>
+    <t>European Union flag</t>
+  </si>
+  <si>
+    <t>Erasmus Programme</t>
+  </si>
+  <si>
+    <t>The 100th anniversary of the foundation of the independent Baltic states</t>
   </si>
 </sst>
 </file>
@@ -531,7 +546,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
@@ -588,6 +603,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -595,6 +616,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -625,6 +649,15 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="21">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -769,15 +802,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -799,9 +823,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="19" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1070,630 +1094,688 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD6"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="36.54296875" style="7" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" style="7" customWidth="1"/>
-    <col min="5" max="7" width="12.453125" style="7" customWidth="1"/>
-    <col min="8" max="10" width="3.81640625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="13.7265625" style="7" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="49" style="7" customWidth="1"/>
+    <col min="3" max="5" width="24.81640625" style="7" customWidth="1"/>
+    <col min="6" max="8" width="12.453125" style="7" customWidth="1"/>
+    <col min="9" max="11" width="3.81640625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="13.7265625" style="7" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="30"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>21</v>
+      <c r="E2" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18">
         <v>2014</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>32</v>
+      <c r="B3" s="23" t="s">
+        <v>30</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>6</v>
+      <c r="D3" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="17">
+        <v>4</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="17">
         <v>1</v>
       </c>
-      <c r="I3" s="17" t="s">
-        <v>6</v>
-      </c>
       <c r="J3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="21" t="str">
-        <f>IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-")),"Can exchange","")</f>
+        <v>4</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="21" t="str">
+        <f>IF(OR(AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="19">
         <v>2015</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>34</v>
+      <c r="B4" s="23" t="s">
+        <v>32</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>6</v>
+      <c r="D4" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="17">
+        <v>4</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="17">
         <v>1</v>
       </c>
-      <c r="I4" s="17" t="s">
-        <v>6</v>
-      </c>
       <c r="J4" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="21" t="str">
-        <f>IF(OR(AND(H4&gt;1,H4&lt;&gt;"-"),AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-")),"Can exchange","")</f>
+        <v>4</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="21" t="str">
+        <f>IF(OR(AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="19">
         <v>2015</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>6</v>
+      <c r="B5" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="17">
+        <v>4</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="17">
         <v>1</v>
       </c>
-      <c r="I5" s="17" t="s">
-        <v>6</v>
-      </c>
       <c r="J5" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="21" t="str">
-        <f>IF(OR(AND(H5&gt;1,H5&lt;&gt;"-"),AND(I5&gt;1,I5&lt;&gt;"-"),AND(J5&gt;1,J5&lt;&gt;"-")),"Can exchange","")</f>
+        <v>4</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="21" t="str">
+        <f>IF(OR(AND(I5&gt;1,I5&lt;&gt;"-"),AND(J5&gt;1,J5&lt;&gt;"-"),AND(K5&gt;1,K5&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="19">
         <v>2015</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>33</v>
+      <c r="B6" s="23" t="s">
+        <v>31</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>6</v>
+      <c r="D6" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="17">
+        <v>4</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="17">
         <v>1</v>
       </c>
-      <c r="I6" s="17" t="s">
-        <v>6</v>
-      </c>
       <c r="J6" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="21" t="str">
-        <f>IF(OR(AND(H6&gt;1,H6&lt;&gt;"-"),AND(I6&gt;1,I6&lt;&gt;"-"),AND(J6&gt;1,J6&lt;&gt;"-")),"Can exchange","")</f>
+        <v>4</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="21" t="str">
+        <f>IF(OR(AND(I6&gt;1,I6&lt;&gt;"-"),AND(J6&gt;1,J6&lt;&gt;"-"),AND(K6&gt;1,K6&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19">
         <v>2016</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>36</v>
+      <c r="B7" s="23" t="s">
+        <v>34</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="17">
+      <c r="D7" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="17">
         <v>1</v>
       </c>
-      <c r="J7" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="21" t="str">
-        <f t="shared" ref="K7:K13" si="0">IF(OR(AND(H7&gt;1,H7&lt;&gt;"-"),AND(I7&gt;1,I7&lt;&gt;"-"),AND(J7&gt;1,J7&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="K7" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="21" t="str">
+        <f t="shared" ref="L7:L13" si="0">IF(OR(AND(I7&gt;1,I7&lt;&gt;"-"),AND(J7&gt;1,J7&lt;&gt;"-"),AND(K7&gt;1,K7&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="19">
         <v>2016</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>38</v>
+      <c r="B8" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="17">
+        <v>35</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="17">
         <v>2</v>
       </c>
-      <c r="J8" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="21" t="str">
+      <c r="K8" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="19">
         <v>2017</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>43</v>
+      <c r="B9" s="23" t="s">
+        <v>41</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>6</v>
+        <v>35</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="17">
+        <v>4</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="17">
         <v>1</v>
       </c>
-      <c r="I9" s="17" t="s">
-        <v>6</v>
-      </c>
       <c r="J9" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="K9" s="21" t="str">
+        <v>4</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="19">
         <v>2017</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>39</v>
+      <c r="B10" s="23" t="s">
+        <v>37</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>6</v>
+        <v>35</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="17">
+        <v>4</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="17">
         <v>1</v>
       </c>
-      <c r="I10" s="17" t="s">
-        <v>6</v>
-      </c>
       <c r="J10" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="21" t="str">
+        <v>4</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="19">
         <v>2018</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="17">
+      <c r="B11" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="17">
         <v>1</v>
       </c>
-      <c r="J11" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" s="21" t="str">
+      <c r="K11" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="19">
         <v>2018</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>41</v>
+      <c r="B12" s="23" t="s">
+        <v>39</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="17">
+        <v>35</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="17">
         <v>2</v>
       </c>
-      <c r="J12" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" s="21" t="str">
+      <c r="K12" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19">
         <v>2019</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="F13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" s="17">
+        <v>4</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="17">
         <v>1</v>
       </c>
-      <c r="K13" s="21" t="str">
+      <c r="L13" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="19">
         <v>2020</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>46</v>
+      <c r="B14" s="23" t="s">
+        <v>44</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="17">
+      <c r="D14" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="17">
         <v>1</v>
       </c>
-      <c r="J14" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" s="21" t="str">
-        <f>IF(OR(AND(H14&gt;1,H14&lt;&gt;"-"),AND(I14&gt;1,I14&lt;&gt;"-"),AND(J14&gt;1,J14&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="K14" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="21" t="str">
+        <f>IF(OR(AND(I14&gt;1,I14&lt;&gt;"-"),AND(J14&gt;1,J14&lt;&gt;"-"),AND(K14&gt;1,K14&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="19">
         <v>2021</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>49</v>
+      <c r="B15" s="23" t="s">
+        <v>47</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>6</v>
+      <c r="D15" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="17">
+        <v>4</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="17">
         <v>1</v>
       </c>
-      <c r="I15" s="17" t="s">
-        <v>6</v>
-      </c>
       <c r="J15" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="19">
         <v>2022</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>50</v>
+      <c r="B16" s="23" t="s">
+        <v>48</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="17">
+      <c r="D16" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="17">
         <v>1</v>
       </c>
-      <c r="J16" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K16" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="19">
         <v>2022</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="17">
+      <c r="B17" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="17">
         <v>1</v>
       </c>
-      <c r="J17" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K17" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="19">
         <v>2023</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>55</v>
+      <c r="B18" s="23" t="s">
+        <v>53</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" s="17">
+      <c r="D18" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="17">
         <v>1</v>
       </c>
-      <c r="J18" s="17" t="s">
-        <v>6</v>
+      <c r="K18" s="17" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="I12 J14 H7:I11 J7:J12 H3:J6">
-    <cfRule type="containsText" dxfId="17" priority="43" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12 J14 H7:I11 J7:J12 H3:J6">
+  <conditionalFormatting sqref="J12 K14 I7:J11 K7:K12 I3:K6">
+    <cfRule type="containsText" dxfId="20" priority="43" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14 J12 I7:J11 K7:K12 I3:K6">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1705,12 +1787,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="16" priority="41" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
+  <conditionalFormatting sqref="I12">
+    <cfRule type="containsText" dxfId="19" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1722,12 +1804,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="15" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="18" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1739,12 +1821,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14:I14">
-    <cfRule type="containsText" dxfId="14" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14:I14">
+  <conditionalFormatting sqref="I14:J14">
+    <cfRule type="containsText" dxfId="17" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:J14">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1756,12 +1838,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="13" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
+  <conditionalFormatting sqref="K13">
+    <cfRule type="containsText" dxfId="16" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1773,12 +1855,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="12" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
+  <conditionalFormatting sqref="J13">
+    <cfRule type="containsText" dxfId="15" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1790,12 +1872,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="containsText" dxfId="11" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
+  <conditionalFormatting sqref="J15">
+    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1807,12 +1889,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="containsText" dxfId="10" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
+  <conditionalFormatting sqref="K15">
+    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1824,12 +1906,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="9" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
+  <conditionalFormatting sqref="I16">
+    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1841,12 +1923,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="8" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
+  <conditionalFormatting sqref="K16">
+    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1858,12 +1940,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="containsText" dxfId="7" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
+  <conditionalFormatting sqref="I17">
+    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1875,12 +1957,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
-    <cfRule type="containsText" dxfId="6" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
+  <conditionalFormatting sqref="K17">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1892,12 +1974,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
+  <conditionalFormatting sqref="I18">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1909,12 +1991,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
+  <conditionalFormatting sqref="K18">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1926,12 +2008,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+  <conditionalFormatting sqref="I15">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1943,12 +2025,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
+  <conditionalFormatting sqref="J16">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1960,12 +2042,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
+  <conditionalFormatting sqref="J17">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1977,12 +2059,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
+  <conditionalFormatting sqref="J18">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2005,7 +2087,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2017,13 +2099,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -2031,10 +2113,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -2042,10 +2124,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2053,10 +2135,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -2064,10 +2146,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -2075,10 +2157,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -2086,10 +2168,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Latvia/#EURO#Latvia#Commemorative#[2014-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Latvia/#EURO#Latvia#Commemorative#[2014-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Latvia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E833207-2406-411A-80A0-4BE1EDF18655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75873A2E-8D7E-4E59-A8FF-AFA5278350D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="1110" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="62">
   <si>
     <t>Year</t>
   </si>
@@ -648,7 +648,31 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -823,9 +847,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="4" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1094,13 +1118,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1762,6 +1786,41 @@
         <v>4</v>
       </c>
     </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="19">
+        <v>2024</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
@@ -1771,11 +1830,62 @@
     <mergeCell ref="F1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="J12 K14 I7:J11 K7:K12 I3:K6">
+    <cfRule type="containsText" dxfId="23" priority="49" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12 K14 I7:J11 K7:K12 I3:K6">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="containsText" dxfId="22" priority="47" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="21" priority="45" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:J14">
     <cfRule type="containsText" dxfId="20" priority="43" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K14 J12 I7:J11 K7:K12 I3:K6">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:J14">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1787,12 +1897,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
+  <conditionalFormatting sqref="K13">
     <cfRule type="containsText" dxfId="19" priority="41" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1804,12 +1914,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
+  <conditionalFormatting sqref="J13">
     <cfRule type="containsText" dxfId="18" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1821,29 +1931,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14:J14">
-    <cfRule type="containsText" dxfId="17" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14:J14">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
-    <cfRule type="containsText" dxfId="16" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
+  <conditionalFormatting sqref="J15">
+    <cfRule type="containsText" dxfId="17" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1855,12 +1948,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="15" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
+  <conditionalFormatting sqref="K15">
+    <cfRule type="containsText" dxfId="16" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1872,13 +1965,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="colorScale" priority="30">
+  <conditionalFormatting sqref="I16">
+    <cfRule type="containsText" dxfId="15" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1889,12 +1982,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
-    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
+  <conditionalFormatting sqref="K16">
+    <cfRule type="containsText" dxfId="14" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1906,12 +1999,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
+  <conditionalFormatting sqref="I17">
+    <cfRule type="containsText" dxfId="13" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1923,12 +2016,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
-    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
+  <conditionalFormatting sqref="K17">
+    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1940,12 +2033,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
-    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
+  <conditionalFormatting sqref="I18">
+    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1957,12 +2050,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
-    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
+  <conditionalFormatting sqref="K18">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1974,12 +2067,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
-    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
+  <conditionalFormatting sqref="I15">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1991,12 +2084,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
+  <conditionalFormatting sqref="J16">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2008,12 +2118,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
+  <conditionalFormatting sqref="J18">
     <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2025,12 +2135,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
+  <conditionalFormatting sqref="I19">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2042,12 +2152,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
+  <conditionalFormatting sqref="J19">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2059,12 +2169,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
+  <conditionalFormatting sqref="K19">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Latvia/#EURO#Latvia#Commemorative#[2014-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Latvia/#EURO#Latvia#Commemorative#[2014-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Latvia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75873A2E-8D7E-4E59-A8FF-AFA5278350D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761B119F-DDDF-4363-A157-B57704C8E1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="1110" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="65">
   <si>
     <t>Year</t>
   </si>
@@ -336,6 +336,15 @@
   </si>
   <si>
     <t>The 100th anniversary of the foundation of the independent Baltic states</t>
+  </si>
+  <si>
+    <t>Puzuris - Straw Mobile</t>
+  </si>
+  <si>
+    <t>Sēlija</t>
+  </si>
+  <si>
+    <t>413.000</t>
   </si>
 </sst>
 </file>
@@ -648,7 +657,31 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -681,6 +714,30 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -847,9 +904,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="4" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="7" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1118,13 +1175,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1790,23 +1847,21 @@
       <c r="A19" s="19">
         <v>2024</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>4</v>
+      <c r="B19" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>42</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>4</v>
+      <c r="G19" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>4</v>
@@ -1814,10 +1869,45 @@
       <c r="I19" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="J19" s="17" t="s">
-        <v>4</v>
+      <c r="J19" s="17">
+        <v>1</v>
       </c>
       <c r="K19" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="19">
+        <v>2025</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="17">
+        <v>0</v>
+      </c>
+      <c r="K20" s="17" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1830,12 +1920,12 @@
     <mergeCell ref="F1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="J12 K14 I7:J11 K7:K12 I3:K6">
-    <cfRule type="containsText" dxfId="23" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12 K14 I7:J11 K7:K12 I3:K6">
-    <cfRule type="colorScale" priority="50">
+  <conditionalFormatting sqref="K14 J12 I7:J11 K7:K12 I3:K6">
+    <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1847,11 +1937,96 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="containsText" dxfId="22" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="27" priority="57" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:J14">
+    <cfRule type="containsText" dxfId="26" priority="55" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:J14">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="containsText" dxfId="25" priority="53" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="containsText" dxfId="24" priority="51" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="containsText" dxfId="23" priority="47" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1863,12 +2038,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="21" priority="45" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
+  <conditionalFormatting sqref="K15">
+    <cfRule type="containsText" dxfId="22" priority="45" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1880,12 +2055,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14:J14">
-    <cfRule type="containsText" dxfId="20" priority="43" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14:J14">
+  <conditionalFormatting sqref="I16">
+    <cfRule type="containsText" dxfId="21" priority="43" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1897,29 +2072,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
-    <cfRule type="containsText" dxfId="19" priority="41" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="18" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
+  <conditionalFormatting sqref="K16">
+    <cfRule type="containsText" dxfId="20" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1931,13 +2089,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="containsText" dxfId="17" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="colorScale" priority="36">
+  <conditionalFormatting sqref="I17">
+    <cfRule type="containsText" dxfId="19" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1948,12 +2106,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
-    <cfRule type="containsText" dxfId="16" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
+  <conditionalFormatting sqref="K17">
+    <cfRule type="containsText" dxfId="18" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1965,12 +2123,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="containsText" dxfId="15" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
+  <conditionalFormatting sqref="I18">
+    <cfRule type="containsText" dxfId="17" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1982,12 +2140,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
-    <cfRule type="containsText" dxfId="14" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
+  <conditionalFormatting sqref="K18">
+    <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1999,12 +2157,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
-    <cfRule type="containsText" dxfId="13" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
+  <conditionalFormatting sqref="I15">
+    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2016,12 +2174,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
-    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
+  <conditionalFormatting sqref="J16">
+    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
+    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2033,12 +2208,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
-    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
+  <conditionalFormatting sqref="J18">
+    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2050,46 +2225,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
-    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
+  <conditionalFormatting sqref="I20">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2101,12 +2242,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
+  <conditionalFormatting sqref="K20">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2118,12 +2259,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
+  <conditionalFormatting sqref="J20">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2152,12 +2293,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
+  <conditionalFormatting sqref="K19">
     <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J19))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2169,12 +2310,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19">
+  <conditionalFormatting sqref="J19">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K19))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2197,7 +2338,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Collections/EURO/Latvia/#EURO#Latvia#Commemorative#[2014-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Latvia/#EURO#Latvia#Commemorative#[2014-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Latvia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761B119F-DDDF-4363-A157-B57704C8E1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA06922-54ED-4428-B69A-C7A6B6FC2D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2€'!$B$2:$H$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -320,9 +323,6 @@
     <t>Subtype_1#Series</t>
   </si>
   <si>
-    <t>Subtype_2#Mint_Symbol</t>
-  </si>
-  <si>
     <t>Subtype_3#Map_of_Europe</t>
   </si>
   <si>
@@ -345,6 +345,9 @@
   </si>
   <si>
     <t>413.000</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_marks_1</t>
   </si>
 </sst>
 </file>
@@ -555,7 +558,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
@@ -617,6 +620,9 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -657,7 +663,16 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="27">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -681,39 +696,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -904,9 +886,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="7" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1181,55 +1163,55 @@
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="49" style="7" customWidth="1"/>
-    <col min="3" max="5" width="24.81640625" style="7" customWidth="1"/>
-    <col min="6" max="8" width="12.453125" style="7" customWidth="1"/>
-    <col min="9" max="11" width="3.81640625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="13.7265625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="7" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="7" customWidth="1"/>
+    <col min="6" max="8" width="12.6328125" style="7" customWidth="1"/>
+    <col min="9" max="11" width="3.6328125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="12.6328125" style="7" customWidth="1"/>
     <col min="13" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="31"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
       <c r="C2" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>19</v>
@@ -1260,7 +1242,7 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>42</v>
@@ -1297,7 +1279,7 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>42</v>
@@ -1333,10 +1315,10 @@
         <v>33</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>42</v>
@@ -1373,7 +1355,7 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>42</v>
@@ -1410,7 +1392,7 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>42</v>
@@ -1449,7 +1431,7 @@
         <v>35</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>42</v>
@@ -1488,7 +1470,7 @@
         <v>35</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>42</v>
@@ -1527,7 +1509,7 @@
         <v>35</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>42</v>
@@ -1560,13 +1542,13 @@
         <v>2018</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>42</v>
@@ -1605,7 +1587,7 @@
         <v>35</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>42</v>
@@ -1644,7 +1626,7 @@
         <v>35</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>42</v>
@@ -1681,7 +1663,7 @@
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>42</v>
@@ -1718,7 +1700,7 @@
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>42</v>
@@ -1751,7 +1733,7 @@
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>42</v>
@@ -1783,10 +1765,10 @@
         <v>50</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>42</v>
@@ -1819,7 +1801,7 @@
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>42</v>
@@ -1848,11 +1830,11 @@
         <v>2024</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>42</v>
@@ -1861,7 +1843,7 @@
         <v>4</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>4</v>
@@ -1881,13 +1863,13 @@
         <v>2025</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>42</v>
@@ -1896,7 +1878,7 @@
         <v>4</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>4</v>
@@ -1912,19 +1894,19 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:H2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="F1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="J12 K14 I7:J11 K7:K12 I3:K6">
-    <cfRule type="containsText" dxfId="29" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14 J12 I7:J11 K7:K12 I3:K6">
+  <conditionalFormatting sqref="J12 K14 I7:J11 K7:K12 I3:K6">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1937,7 +1919,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="containsText" dxfId="28" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1954,7 +1936,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="27" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1971,7 +1953,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:J14">
-    <cfRule type="containsText" dxfId="26" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1988,7 +1970,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="containsText" dxfId="25" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2005,7 +1987,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="24" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2022,7 +2004,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="containsText" dxfId="23" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2039,7 +2021,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="containsText" dxfId="22" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2056,7 +2038,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="containsText" dxfId="21" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2073,7 +2055,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="containsText" dxfId="20" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2090,7 +2072,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="containsText" dxfId="19" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2107,7 +2089,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="containsText" dxfId="18" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2124,7 +2106,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="containsText" dxfId="17" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2141,7 +2123,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18">
-    <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2158,7 +2140,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2175,7 +2157,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2192,7 +2174,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17">
-    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2209,7 +2191,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2226,7 +2208,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2243,7 +2225,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2260,7 +2242,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2277,7 +2259,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2294,7 +2276,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2311,7 +2293,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J19))))</formula>
     </cfRule>
   </conditionalFormatting>
